--- a/frontend/public/template/Import_template.xlsx
+++ b/frontend/public/template/Import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangvo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SampleManagement\frontend\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA86ECAA-DD1E-41BB-B734-AEBCB6F3BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA399C-C061-4C1E-AD99-33F95ADCB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E012B55E-AB63-49EE-8BA3-F201B66A7E8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序號</t>
   </si>
@@ -69,28 +69,22 @@
     <t>品牌</t>
   </si>
   <si>
-    <t>季节</t>
-  </si>
-  <si>
-    <t>款号</t>
-  </si>
-  <si>
     <t>通知日期</t>
   </si>
   <si>
-    <t>庫存數量</t>
-  </si>
-  <si>
-    <t>庫存位置</t>
-  </si>
-  <si>
     <t>Article NO.</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>TA12274</t>
+  </si>
+  <si>
+    <t>ColorwayName</t>
+  </si>
+  <si>
+    <t>季節</t>
+  </si>
+  <si>
+    <t>款號</t>
   </si>
 </sst>
 </file>
@@ -98,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -132,7 +126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,11 +169,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,37 +219,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C4A40D-DA2B-463F-AF7D-54B2BF56A1B0}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,68 +593,69 @@
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -617,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -625,23 +677,20 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="5">
         <v>45356</v>
       </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -649,13 +698,14 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -663,13 +713,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -677,13 +728,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -691,13 +743,14 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -705,13 +758,14 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -719,13 +773,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="2"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -733,13 +788,14 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="2"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -747,13 +803,14 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="2"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -761,13 +818,14 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="2"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -775,13 +833,14 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="2"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -789,13 +848,14 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="J14" s="2"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -803,13 +863,14 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -817,13 +878,14 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="4"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -831,13 +893,14 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -845,13 +908,14 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -859,336 +923,336 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="10:10">
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="10:10">
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="10:10">
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="10:10">
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="10:10">
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="10:10">
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="10:10">
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="10:10">
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="10:10">
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="10:10">
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="10:10">
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="10:10">
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="10:10">
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="10:10">
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="10:10">
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="10:10">
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="10:10">
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="10:10">
-      <c r="J51" s="14"/>
-    </row>
-    <row r="52" spans="10:10">
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="14"/>
-    </row>
-    <row r="57" spans="10:10">
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="10:10">
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="10:10">
-      <c r="J59" s="14"/>
-    </row>
-    <row r="60" spans="10:10">
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="10:10">
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="10:10">
-      <c r="J64" s="14"/>
-    </row>
-    <row r="65" spans="10:10">
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="10:10">
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" spans="10:10">
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" spans="10:10">
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="10:10">
-      <c r="J69" s="14"/>
-    </row>
-    <row r="70" spans="10:10">
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="10:10">
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="10:10">
-      <c r="J72" s="14"/>
-    </row>
-    <row r="73" spans="10:10">
-      <c r="J73" s="14"/>
-    </row>
-    <row r="74" spans="10:10">
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="10:10">
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="10:10">
-      <c r="J76" s="14"/>
-    </row>
-    <row r="77" spans="10:10">
-      <c r="J77" s="14"/>
-    </row>
-    <row r="78" spans="10:10">
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="10:10">
-      <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="10:10">
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="10:10">
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="10:10">
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="10:10">
-      <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="10:10">
-      <c r="J84" s="14"/>
-    </row>
-    <row r="85" spans="10:10">
-      <c r="J85" s="14"/>
-    </row>
-    <row r="86" spans="10:10">
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="10:10">
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="10:10">
-      <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="10:10">
-      <c r="J89" s="14"/>
-    </row>
-    <row r="90" spans="10:10">
-      <c r="J90" s="14"/>
-    </row>
-    <row r="91" spans="10:10">
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="10:10">
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="10:10">
-      <c r="J93" s="14"/>
-    </row>
-    <row r="94" spans="10:10">
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="10:10">
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="10:10">
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="10:10">
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="10:10">
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="10:10">
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="10:10">
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="10:10">
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="10:10">
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="10:10">
-      <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="10:10">
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="10:10">
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="10:10">
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="10:10">
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="10:10">
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="10:10">
-      <c r="J109" s="14"/>
-    </row>
-    <row r="110" spans="10:10">
-      <c r="J110" s="14"/>
-    </row>
-    <row r="111" spans="10:10">
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" spans="10:10">
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="10:10">
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="10:10">
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="10:10">
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="10:10">
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="10:10">
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="10:10">
-      <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="10:10">
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="10:10">
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="10:10">
-      <c r="J121" s="14"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="8"/>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="8"/>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="8"/>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="8"/>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="8"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="8"/>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="8"/>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="8"/>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="8"/>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="8"/>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="8"/>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="8"/>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="8"/>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="8"/>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="8"/>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="8"/>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="12">
-    <mergeCell ref="L1:L2"/>
+  <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J121" xr:uid="{55F688F4-D3D2-44EA-BA0D-6E0D67531022}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K121" xr:uid="{55F688F4-D3D2-44EA-BA0D-6E0D67531022}">
       <formula1>32874</formula1>
       <formula2>73051</formula2>
     </dataValidation>
